--- a/codebook-meta-analyses-em.xlsx
+++ b/codebook-meta-analyses-em.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="286">
   <si>
     <t>Codebook meta-analysis</t>
   </si>
@@ -899,7 +899,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,13 +925,6 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -18656,10 +18649,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18767,190 +18760,187 @@
       <c r="X1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>239</v>
       </c>
+      <c r="Z1" s="55" t="s">
+        <v>240</v>
+      </c>
       <c r="AA1" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB1" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>243</v>
       </c>
+      <c r="AD1" s="55" t="s">
+        <v>244</v>
+      </c>
       <c r="AE1" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF1" s="55" t="s">
         <v>245</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="AG1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AH1" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="AH1" s="10" t="s">
+        <v>248</v>
+      </c>
       <c r="AI1" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AJ1" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK1" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL1" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM1" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN1" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO1" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AP1" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AQ1" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR1" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>258</v>
       </c>
+      <c r="AS1" s="10" t="s">
+        <v>259</v>
+      </c>
       <c r="AT1" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="AU1" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="AV1" s="28" t="s">
+      <c r="AU1" s="28" t="s">
         <v>135</v>
       </c>
+      <c r="AV1" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="AW1" s="10" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="AX1" s="10" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="AY1" s="10" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="AZ1" s="10" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="BA1" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BB1" s="10" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="BC1" s="10" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="BD1" s="10" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="BE1" s="10" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="BF1" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="BG1" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="BH1" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="BI1" s="37" t="s">
+      <c r="BH1" s="37" t="s">
         <v>261</v>
       </c>
+      <c r="BI1" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="BJ1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BL1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="BM1" s="37" t="s">
+      <c r="BL1" s="37" t="s">
         <v>23</v>
       </c>
+      <c r="BM1" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="BN1" s="1" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BP1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BQ1" s="37" t="s">
+      <c r="BP1" s="37" t="s">
         <v>267</v>
       </c>
+      <c r="BQ1" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="BR1" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="BU1" s="1" t="s">
         <v>271</v>
       </c>
+      <c r="BU1" s="10" t="s">
+        <v>272</v>
+      </c>
       <c r="BV1" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BW1" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BX1" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BY1" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BZ1" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="CA1" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="CB1" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="CC1" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="CD1" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="CE1" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="CF1" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="CG1" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="CH1" s="10" t="s">
         <v>284</v>
       </c>
       <c r="CI1" s="20"/>

--- a/codebook-meta-analyses-em.xlsx
+++ b/codebook-meta-analyses-em.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
@@ -832,9 +832,6 @@
     <t>Number of studies that could be reproduced without discrepancy</t>
   </si>
   <si>
-    <t>Discrepancy of 0 and category 0</t>
-  </si>
-  <si>
     <t>z.sc</t>
   </si>
   <si>
@@ -890,6 +887,9 @@
   </si>
   <si>
     <t>ci.ul.sc</t>
+  </si>
+  <si>
+    <t>Disccat = 0</t>
   </si>
 </sst>
 </file>
@@ -1394,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB96"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18468,7 +18468,7 @@
         <v>265</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -18484,7 +18484,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B78" s="53" t="s">
         <v>134</v>
@@ -18492,7 +18492,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B79" s="53" t="s">
         <v>128</v>
@@ -18500,7 +18500,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>129</v>
@@ -18508,7 +18508,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>140</v>
@@ -18517,7 +18517,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>130</v>
@@ -18526,7 +18526,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>181</v>
@@ -18537,7 +18537,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>132</v>
@@ -18546,7 +18546,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>133</v>
@@ -18555,7 +18555,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>182</v>
@@ -18566,7 +18566,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>11</v>
@@ -18574,7 +18574,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>12</v>
@@ -18582,7 +18582,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>13</v>
@@ -18590,7 +18590,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>183</v>
@@ -18598,7 +18598,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>184</v>
@@ -18606,7 +18606,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>185</v>
@@ -18614,7 +18614,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>186</v>
@@ -18622,7 +18622,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>187</v>
@@ -18630,7 +18630,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>188</v>
@@ -18649,10 +18649,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="BB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="AB9" sqref="AB9"/>
+      <selection pane="bottomLeft" activeCell="BO1" sqref="BO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18890,58 +18890,58 @@
         <v>142</v>
       </c>
       <c r="BP1" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="BR1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="BU1" s="10" t="s">
+      <c r="BV1" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="BV1" s="10" t="s">
+      <c r="BW1" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="BW1" s="10" t="s">
+      <c r="BX1" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="BX1" s="10" t="s">
+      <c r="BY1" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="BY1" s="10" t="s">
+      <c r="BZ1" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="BZ1" s="10" t="s">
+      <c r="CA1" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="CA1" s="10" t="s">
+      <c r="CB1" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="CB1" s="10" t="s">
+      <c r="CC1" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="CC1" s="10" t="s">
+      <c r="CD1" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="CD1" s="10" t="s">
+      <c r="CE1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CF1" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="CF1" s="10" t="s">
+      <c r="CG1" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="CG1" s="10" t="s">
-        <v>284</v>
       </c>
       <c r="CI1" s="20"/>
     </row>
